--- a/old_database/crypto/bioSample/bioSample_1874.xlsx
+++ b/old_database/crypto/bioSample/bioSample_1874.xlsx
@@ -58,7 +58,7 @@
     <t>11.01.16</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_1874</t>
   </si>
   <si>
     <t>CNAG_00000</t>

--- a/old_database/crypto/bioSample/bioSample_1874.xlsx
+++ b/old_database/crypto/bioSample/bioSample_1874.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/old_database/crypto/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E254F1C-50D7-6B40-88C5-44EBFD2647AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12440" yWindow="460" windowWidth="16100" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="41">
   <si>
     <t>harvestDate</t>
   </si>
@@ -58,9 +64,6 @@
     <t>11.01.16</t>
   </si>
   <si>
-    <t>Retrofitted_1874</t>
-  </si>
-  <si>
     <t>CNAG_00000</t>
   </si>
   <si>
@@ -98,13 +101,55 @@
   </si>
   <si>
     <t>37C.CO2</t>
+  </si>
+  <si>
+    <t>S.GISH</t>
+  </si>
+  <si>
+    <t>90minuteInduction</t>
+  </si>
+  <si>
+    <t>KN99allpha</t>
+  </si>
+  <si>
+    <t>TDY1974</t>
+  </si>
+  <si>
+    <t>TDY1966</t>
+  </si>
+  <si>
+    <t>TDY1954</t>
+  </si>
+  <si>
+    <t>TDY1452</t>
+  </si>
+  <si>
+    <t>TDY1951</t>
+  </si>
+  <si>
+    <t>TDY2020</t>
+  </si>
+  <si>
+    <t>TDY2011</t>
+  </si>
+  <si>
+    <t>TDY1969</t>
+  </si>
+  <si>
+    <t>TDY1939</t>
+  </si>
+  <si>
+    <t>TDY1957</t>
+  </si>
+  <si>
+    <t>TDY1948</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +212,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -213,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,9 +298,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,6 +350,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,14 +543,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:F43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,21 +590,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2">
         <v>90</v>
@@ -522,21 +619,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>90</v>
@@ -545,21 +648,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>90</v>
@@ -568,21 +677,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>90</v>
@@ -591,21 +706,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>90</v>
@@ -614,21 +735,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
         <v>90</v>
@@ -637,21 +764,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8">
         <v>90</v>
@@ -660,21 +793,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>90</v>
@@ -683,21 +822,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>90</v>
@@ -706,21 +851,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <v>90</v>
@@ -729,21 +880,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>90</v>
@@ -752,21 +909,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>90</v>
@@ -775,21 +938,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>90</v>
@@ -798,21 +967,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
         <v>90</v>
@@ -821,21 +996,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
         <v>90</v>
@@ -844,21 +1025,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
         <v>90</v>
@@ -867,21 +1054,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K18">
         <v>90</v>
@@ -890,21 +1083,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19">
         <v>90</v>
@@ -913,21 +1112,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20">
         <v>90</v>
@@ -936,21 +1141,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21">
         <v>90</v>
@@ -959,21 +1170,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22">
         <v>90</v>
@@ -982,21 +1199,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23">
         <v>90</v>
@@ -1005,21 +1228,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K24">
         <v>90</v>
@@ -1028,21 +1257,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K25">
         <v>90</v>
@@ -1051,21 +1286,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K26">
         <v>90</v>
@@ -1074,21 +1315,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K27">
         <v>90</v>
@@ -1097,21 +1344,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28">
         <v>90</v>
@@ -1120,21 +1373,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K29">
         <v>90</v>
@@ -1143,21 +1402,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K30">
         <v>90</v>
@@ -1166,21 +1431,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K31">
         <v>90</v>
@@ -1189,21 +1460,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K32">
         <v>90</v>
@@ -1212,21 +1489,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K33">
         <v>90</v>
@@ -1235,21 +1518,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K34">
         <v>90</v>
@@ -1258,21 +1547,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K35">
         <v>90</v>
@@ -1281,21 +1576,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K36">
         <v>90</v>
@@ -1304,21 +1605,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K37">
         <v>90</v>
@@ -1327,21 +1634,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>39</v>
+      </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K38">
         <v>90</v>
@@ -1350,21 +1663,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>39</v>
+      </c>
       <c r="G39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K39">
         <v>90</v>
@@ -1373,21 +1692,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>39</v>
+      </c>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K40">
         <v>90</v>
@@ -1396,21 +1721,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K41">
         <v>90</v>
@@ -1419,21 +1750,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>40</v>
+      </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K42">
         <v>90</v>
@@ -1442,21 +1779,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
       <c r="G43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K43">
         <v>90</v>

--- a/old_database/crypto/bioSample/bioSample_1874.xlsx
+++ b/old_database/crypto/bioSample/bioSample_1874.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/old_database/crypto/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E254F1C-50D7-6B40-88C5-44EBFD2647AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A8959-6A95-F54A-89D0-34D571D3A7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12440" yWindow="460" windowWidth="16100" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -103,9 +103,6 @@
     <t>37C.CO2</t>
   </si>
   <si>
-    <t>S.GISH</t>
-  </si>
-  <si>
     <t>90minuteInduction</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>TDY1948</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:F43"/>
+      <selection activeCell="B3" sqref="B3:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,16 +595,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -624,16 +624,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -653,16 +653,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -682,16 +682,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -711,16 +711,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -740,16 +740,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -769,16 +769,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -798,16 +798,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -827,16 +827,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -856,16 +856,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -885,16 +885,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -914,16 +914,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -943,16 +943,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -972,16 +972,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -1001,16 +1001,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -1030,16 +1030,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -1059,16 +1059,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -1088,16 +1088,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -1117,16 +1117,16 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -1146,16 +1146,16 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -1175,16 +1175,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -1204,16 +1204,16 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
         <v>28</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -1233,16 +1233,16 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
         <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -1262,16 +1262,16 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
         <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -1291,16 +1291,16 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
@@ -1320,16 +1320,16 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -1378,16 +1378,16 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -1407,16 +1407,16 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
@@ -1436,16 +1436,16 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>22</v>
@@ -1465,16 +1465,16 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -1494,16 +1494,16 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -1523,16 +1523,16 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -1552,16 +1552,16 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>23</v>
@@ -1581,16 +1581,16 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -1610,16 +1610,16 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
@@ -1639,16 +1639,16 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
         <v>24</v>
@@ -1668,16 +1668,16 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
@@ -1697,16 +1697,16 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>24</v>
@@ -1726,16 +1726,16 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>25</v>
@@ -1755,16 +1755,16 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
         <v>25</v>
@@ -1784,16 +1784,16 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
         <v>25</v>

--- a/old_database/crypto/bioSample/bioSample_1874.xlsx
+++ b/old_database/crypto/bioSample/bioSample_1874.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/old_database/crypto/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A8959-6A95-F54A-89D0-34D571D3A7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A44A734B-E5CA-7045-8246-9811508BC406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12440" yWindow="460" windowWidth="16100" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16760" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="31">
   <si>
     <t>harvestDate</t>
   </si>
@@ -103,46 +112,16 @@
     <t>37C.CO2</t>
   </si>
   <si>
+    <t>S.GISH</t>
+  </si>
+  <si>
     <t>90minuteInduction</t>
   </si>
   <si>
-    <t>KN99allpha</t>
+    <t>KN99alpha</t>
   </si>
   <si>
     <t>TDY1974</t>
-  </si>
-  <si>
-    <t>TDY1966</t>
-  </si>
-  <si>
-    <t>TDY1954</t>
-  </si>
-  <si>
-    <t>TDY1452</t>
-  </si>
-  <si>
-    <t>TDY1951</t>
-  </si>
-  <si>
-    <t>TDY2020</t>
-  </si>
-  <si>
-    <t>TDY2011</t>
-  </si>
-  <si>
-    <t>TDY1969</t>
-  </si>
-  <si>
-    <t>TDY1939</t>
-  </si>
-  <si>
-    <t>TDY1957</t>
-  </si>
-  <si>
-    <t>TDY1948</t>
-  </si>
-  <si>
-    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
@@ -547,7 +526,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B43"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,16 +574,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -624,15 +603,12 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
@@ -653,15 +629,12 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
         <v>28</v>
       </c>
       <c r="G4" t="s">
@@ -682,16 +655,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -711,16 +684,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -740,16 +710,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -769,16 +736,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -798,16 +762,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -827,16 +788,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -856,16 +814,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -885,16 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -914,16 +866,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -943,16 +892,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -972,16 +918,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -1001,16 +944,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -1030,16 +970,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -1059,16 +996,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -1088,16 +1022,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -1117,16 +1048,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -1146,16 +1074,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -1175,16 +1100,13 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -1204,15 +1126,12 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
         <v>28</v>
       </c>
       <c r="G23" t="s">
@@ -1233,15 +1152,12 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
         <v>28</v>
       </c>
       <c r="G24" t="s">
@@ -1262,15 +1178,12 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
         <v>28</v>
       </c>
       <c r="G25" t="s">
@@ -1291,16 +1204,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
@@ -1320,16 +1230,13 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
@@ -1349,16 +1256,13 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -1378,16 +1282,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -1407,16 +1308,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
@@ -1436,16 +1334,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
         <v>22</v>
@@ -1465,16 +1360,13 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -1494,16 +1386,13 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
         <v>17</v>
@@ -1523,16 +1412,13 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -1552,16 +1438,13 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G35" t="s">
         <v>23</v>
@@ -1581,16 +1464,13 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G36" t="s">
         <v>23</v>
@@ -1610,16 +1490,13 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
         <v>23</v>
@@ -1639,16 +1516,13 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
         <v>24</v>
@@ -1668,16 +1542,13 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
         <v>24</v>
@@ -1697,16 +1568,13 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
         <v>24</v>
@@ -1726,16 +1594,13 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
         <v>25</v>
@@ -1755,16 +1620,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
         <v>25</v>
@@ -1784,16 +1646,13 @@
         <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
         <v>25</v>
